--- a/CUSTOM FIELDS.xlsx
+++ b/CUSTOM FIELDS.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto D'Antuono\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto D'Antuono\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -185,15 +185,6 @@
     <t>cta_button_txt2</t>
   </si>
   <si>
-    <t>FIRST  SPOTLIGHT IMAGE</t>
-  </si>
-  <si>
-    <t>SECOND  SPOTLIGHT IMAGE</t>
-  </si>
-  <si>
-    <t>THIRD  SPOTLIGHT IMAGE</t>
-  </si>
-  <si>
     <t>FIRST  SPOTLIGHT CAPTION</t>
   </si>
   <si>
@@ -318,6 +309,15 @@
   </si>
   <si>
     <t>TEXT FOR SCROLL ACTION (ex. Learn More)</t>
+  </si>
+  <si>
+    <t>SECOND  SPOTLIGHT IMAGE (748x529)</t>
+  </si>
+  <si>
+    <t>THIRD  SPOTLIGHT IMAGE(748x529)</t>
+  </si>
+  <si>
+    <t>FIRST  SPOTLIGHT IMAGE (748x529)</t>
   </si>
 </sst>
 </file>
@@ -695,7 +695,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -711,25 +711,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -821,7 +821,7 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -893,7 +893,7 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -917,7 +917,7 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -941,7 +941,7 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -965,11 +965,11 @@
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="G11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO anchor_extend(`id`, `type`, `field`, `pagetype`, `key`, `label`, `attributes`) VALUES('10','page','image','HOME','spotlight_img1','FIRST  SPOTLIGHT IMAGE','');</v>
+        <v>INSERT INTO anchor_extend(`id`, `type`, `field`, `pagetype`, `key`, `label`, `attributes`) VALUES('10','page','image','HOME','spotlight_img1','FIRST  SPOTLIGHT IMAGE (748x529)','');</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -989,7 +989,7 @@
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1013,7 +1013,7 @@
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1037,11 +1037,11 @@
         <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="G14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO anchor_extend(`id`, `type`, `field`, `pagetype`, `key`, `label`, `attributes`) VALUES('13','page','image','HOME','spotlight_img2','SECOND  SPOTLIGHT IMAGE','');</v>
+        <v>INSERT INTO anchor_extend(`id`, `type`, `field`, `pagetype`, `key`, `label`, `attributes`) VALUES('13','page','image','HOME','spotlight_img2','SECOND  SPOTLIGHT IMAGE (748x529)','');</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1061,7 +1061,7 @@
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G15" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1085,7 +1085,7 @@
         <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G16" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1109,11 +1109,11 @@
         <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="G17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO anchor_extend(`id`, `type`, `field`, `pagetype`, `key`, `label`, `attributes`) VALUES('16','page','image','HOME','spotlight_img3','THIRD  SPOTLIGHT IMAGE','');</v>
+        <v>INSERT INTO anchor_extend(`id`, `type`, `field`, `pagetype`, `key`, `label`, `attributes`) VALUES('16','page','image','HOME','spotlight_img3','THIRD  SPOTLIGHT IMAGE(748x529)','');</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1133,7 +1133,7 @@
         <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G18" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1157,7 +1157,7 @@
         <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G19" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1181,7 +1181,7 @@
         <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G20" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1205,7 +1205,7 @@
         <v>28</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1229,7 +1229,7 @@
         <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G22" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1253,7 +1253,7 @@
         <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G23" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1277,7 +1277,7 @@
         <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G24" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1301,7 +1301,7 @@
         <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G25" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1325,7 +1325,7 @@
         <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G26" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1349,7 +1349,7 @@
         <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G27" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1373,7 +1373,7 @@
         <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G28" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1397,7 +1397,7 @@
         <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G29" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1421,7 +1421,7 @@
         <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G30" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1445,7 +1445,7 @@
         <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G31" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1469,7 +1469,7 @@
         <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G32" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1493,7 +1493,7 @@
         <v>40</v>
       </c>
       <c r="F33" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G33" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1517,7 +1517,7 @@
         <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G34" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1541,7 +1541,7 @@
         <v>42</v>
       </c>
       <c r="F35" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G35" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1565,7 +1565,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G36" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1589,7 +1589,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G37" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1613,7 +1613,7 @@
         <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G38" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1637,7 +1637,7 @@
         <v>46</v>
       </c>
       <c r="F39" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G39" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1661,7 +1661,7 @@
         <v>47</v>
       </c>
       <c r="F40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G40" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1685,7 +1685,7 @@
         <v>48</v>
       </c>
       <c r="F41" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G41" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1709,7 +1709,7 @@
         <v>49</v>
       </c>
       <c r="F42" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G42" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1733,7 +1733,7 @@
         <v>50</v>
       </c>
       <c r="F43" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G43" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1757,7 +1757,7 @@
         <v>51</v>
       </c>
       <c r="F44" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G44" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1781,7 +1781,7 @@
         <v>52</v>
       </c>
       <c r="F45" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G45" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1793,6 +1793,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>